--- a/Documentation/Evaluation question list for Mockups & Wireframes.xlsx
+++ b/Documentation/Evaluation question list for Mockups & Wireframes.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rocelle\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rocelle\Desktop\Recipal\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F419C58E-86F3-494A-939E-660BD00D000F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A19D0D-8484-4E3E-AE5C-6053707226BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7E4FA9EE-7F90-4E9F-9FDF-DAA2915659E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Question list" sheetId="2" r:id="rId1"/>
+    <sheet name="Responses" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -97,6 +97,45 @@
   </si>
   <si>
     <t>7.The fonts used on buttons are not consistent, you have two different fonts sets in whole application</t>
+  </si>
+  <si>
+    <t>Questionaire list:</t>
+  </si>
+  <si>
+    <t>2. Is the layout of the wireframe or UI mock-up clear and easy to navigate?</t>
+  </si>
+  <si>
+    <t>1. Does the wireframe or UI mock-up accurately reflect the intended functionality of the application?</t>
+  </si>
+  <si>
+    <t>3. Are the visual elements, such as icons and graphics, clear and easy to understand?</t>
+  </si>
+  <si>
+    <t>4. Is the color scheme appropriate and consistent throughout the wireframe or UI mock-up?</t>
+  </si>
+  <si>
+    <t>5. Is the font style and size appropriate and consistent throughout the wireframe or UI mock-up?</t>
+  </si>
+  <si>
+    <t>6. Are the text labels and instructions clear and easy to understand?</t>
+  </si>
+  <si>
+    <t>7. Does the wireframe or UI mock-up effectively communicate the purpose of the application?</t>
+  </si>
+  <si>
+    <t>8. Does the wireframe or UI mock-up meet the needs of the target audience, such as beginner or experienced cooks?</t>
+  </si>
+  <si>
+    <t>9. Does the wireframe or UI mock-up effectively use space and layout to maximize usability and functionality?</t>
+  </si>
+  <si>
+    <t>10. Are there any areas of the wireframe or UI mock-up that are unclear or confusing?</t>
+  </si>
+  <si>
+    <t>11. Are there any improvements or suggestions for changes to the wireframe or UI mock-up?</t>
+  </si>
+  <si>
+    <t>12. Overall, do you think the wireframe or UI mock-up effectively meets the needs of the application and its intended audience? Why or why not?</t>
   </si>
 </sst>
 </file>
@@ -198,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -211,10 +250,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,11 +570,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5299AA2B-D4AA-43A8-917A-F6E33F8A545B}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50498B4F-6180-4500-BE82-C3C210334CD8}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView zoomScale="62" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,20 +721,20 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
       <c r="R1" s="7" t="s">
         <v>9</v>
       </c>
@@ -726,52 +887,52 @@
       <c r="Q4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="R12" s="11" t="s">
+      <c r="R12" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="10" t="s">
         <v>19</v>
       </c>
     </row>
